--- a/format_data/data_template.xlsx
+++ b/format_data/data_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WURNET.NL\Homes\papou001\AppData\FolderRedirection\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\papou001\git\fork\linked-data-demo_2\format_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="620">
   <si>
     <t>Experiment URI</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Descendant plant URI</t>
   </si>
   <si>
-    <t>Descendant Plant ID</t>
-  </si>
-  <si>
     <t>Descendant plant</t>
   </si>
   <si>
@@ -1770,13 +1767,133 @@
   </si>
   <si>
     <t>http://www.wur.nl/purl/trait#10635</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>There are three sheets to be filled in. Their content is explained below.</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>(Experiment) URI</t>
+  </si>
+  <si>
+    <t>(Experiment) ID</t>
+  </si>
+  <si>
+    <t>(Experiment) Year</t>
+  </si>
+  <si>
+    <t>(Experiment) Country</t>
+  </si>
+  <si>
+    <t>(Descendant plant) URI</t>
+  </si>
+  <si>
+    <t>(Descendant plant) ID</t>
+  </si>
+  <si>
+    <t>(Original plant) URI</t>
+  </si>
+  <si>
+    <t>(Original plant) Biological status (MCPD)</t>
+  </si>
+  <si>
+    <t>(Original plant) Identifier URI</t>
+  </si>
+  <si>
+    <t>(Original plant) Reference title</t>
+  </si>
+  <si>
+    <t>(Original plant) Reference database</t>
+  </si>
+  <si>
+    <t>(Observation) URI</t>
+  </si>
+  <si>
+    <t>(Observation) Phenotypic variable URI</t>
+  </si>
+  <si>
+    <t>(Observation) Phenotypic variable</t>
+  </si>
+  <si>
+    <t>(Observation) Phenotypic variable (label)</t>
+  </si>
+  <si>
+    <t>(Observation) Phenotypic score</t>
+  </si>
+  <si>
+    <t>The URI for this experiment.</t>
+  </si>
+  <si>
+    <t>title/ID</t>
+  </si>
+  <si>
+    <t>year(s) this experiment was conducted</t>
+  </si>
+  <si>
+    <t>country/countries where the experiment took place</t>
+  </si>
+  <si>
+    <t>The URI for the experiment in question. There should be 1 row in this excel sheet for every plant-experiment combination.</t>
+  </si>
+  <si>
+    <t>The URI for the plant that took part in this experiment. This refers to the physical entity of a single plant. Ie, if multiple plants of the same accessioni were used, you have a row and a URI for each of them.</t>
+  </si>
+  <si>
+    <t>The ID by which you refer to this physical plant entity in this experiment. Should be unique per experiment.</t>
+  </si>
+  <si>
+    <t>Parents of the plant that participated in your experiment are considered "original" plants. Each descendant plant must have at least one parent original plant. If necessary, mock these up.</t>
+  </si>
+  <si>
+    <t>Status of the parent-original plant, see MCPD.</t>
+  </si>
+  <si>
+    <t>The database where the plant can be found with that specific title.</t>
+  </si>
+  <si>
+    <t>The reference title of the plant in the specific database.</t>
+  </si>
+  <si>
+    <t>This identifier points to an object encapsulating the database where the original plant is stored, with a certain title.</t>
+  </si>
+  <si>
+    <t>The URI of the experiment where this observation was made.</t>
+  </si>
+  <si>
+    <t>The URI of the plant on which a measurement was conducted. No support for samples at this time.</t>
+  </si>
+  <si>
+    <t>The URI of the observation object for the combination of this plant/experiment.</t>
+  </si>
+  <si>
+    <t>An ontology term pointing to the variable measured.</t>
+  </si>
+  <si>
+    <t>The value of the observation</t>
+  </si>
+  <si>
+    <t>URI of the object encapsulating the variable and its label.</t>
+  </si>
+  <si>
+    <t>A label for what was measured. Could be retrieved from the ontology term mentioned above too. This field serves the purpose of having to avoid importing those ontologies. It might also be used for additional information in this case.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1792,6 +1909,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1801,7 +1926,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1927,12 +2052,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1943,24 +2083,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1982,6 +2104,41 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2264,15 +2421,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="213.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+      <c r="C25" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B19:B25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2281,7 +2664,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,12 +2681,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -2320,73 +2703,73 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2008</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="16">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10">
         <v>2008</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16">
-        <v>2008</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" s="10">
+        <v>2009</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="16">
-        <v>2009</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="16" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="16">
-        <v>2000</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" s="10">
+        <v>2007</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2007</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2408,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,3916 +2809,3916 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>230801961</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
       </c>
       <c r="D5">
         <v>220700102</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>220700103</v>
       </c>
       <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>220700104</v>
       </c>
       <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>220700105</v>
       </c>
       <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>220700106</v>
       </c>
       <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>64</v>
       </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>220700107</v>
       </c>
       <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>220700108</v>
       </c>
       <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>220700109</v>
       </c>
       <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>220700110</v>
       </c>
       <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>80</v>
       </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14">
         <v>220700111</v>
       </c>
       <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
         <v>83</v>
       </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>84</v>
       </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>220700112</v>
       </c>
       <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>88</v>
       </c>
-      <c r="H15" t="s">
-        <v>89</v>
-      </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>220700113</v>
       </c>
       <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>92</v>
       </c>
-      <c r="H16" t="s">
-        <v>93</v>
-      </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>220700114</v>
       </c>
       <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
         <v>95</v>
       </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>96</v>
       </c>
-      <c r="H17" t="s">
-        <v>97</v>
-      </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18">
         <v>220700115</v>
       </c>
       <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>100</v>
       </c>
-      <c r="H18" t="s">
-        <v>101</v>
-      </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19">
         <v>220700116</v>
       </c>
       <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
         <v>103</v>
       </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>104</v>
       </c>
-      <c r="H19" t="s">
-        <v>105</v>
-      </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>220700117</v>
       </c>
       <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
         <v>107</v>
       </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>108</v>
       </c>
-      <c r="H20" t="s">
-        <v>109</v>
-      </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21">
         <v>220700118</v>
       </c>
       <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>112</v>
       </c>
-      <c r="H21" t="s">
-        <v>113</v>
-      </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22">
         <v>220700119</v>
       </c>
       <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
         <v>115</v>
       </c>
-      <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>116</v>
       </c>
-      <c r="H22" t="s">
-        <v>117</v>
-      </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>220700120</v>
       </c>
       <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>120</v>
       </c>
-      <c r="H23" t="s">
-        <v>121</v>
-      </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24">
         <v>220700121</v>
       </c>
       <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>124</v>
       </c>
-      <c r="H24" t="s">
-        <v>125</v>
-      </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25">
         <v>220700123</v>
       </c>
       <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
         <v>127</v>
       </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>128</v>
       </c>
-      <c r="H25" t="s">
-        <v>129</v>
-      </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26">
         <v>220700124</v>
       </c>
       <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
         <v>131</v>
       </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>132</v>
       </c>
-      <c r="H26" t="s">
-        <v>133</v>
-      </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27">
         <v>220700125</v>
       </c>
       <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
         <v>135</v>
       </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>136</v>
       </c>
-      <c r="H27" t="s">
-        <v>137</v>
-      </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28">
         <v>220700126</v>
       </c>
       <c r="E28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
         <v>139</v>
       </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>140</v>
       </c>
-      <c r="H28" t="s">
-        <v>141</v>
-      </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29">
         <v>220700127</v>
       </c>
       <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
         <v>143</v>
       </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>144</v>
       </c>
-      <c r="H29" t="s">
-        <v>145</v>
-      </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30">
         <v>220700128</v>
       </c>
       <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
         <v>147</v>
       </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>148</v>
       </c>
-      <c r="H30" t="s">
-        <v>149</v>
-      </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31">
         <v>220700129</v>
       </c>
       <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
         <v>151</v>
       </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>152</v>
       </c>
-      <c r="H31" t="s">
-        <v>153</v>
-      </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32">
         <v>220700130</v>
       </c>
       <c r="E32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
         <v>155</v>
       </c>
-      <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>156</v>
       </c>
-      <c r="H32" t="s">
-        <v>157</v>
-      </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33">
         <v>220700132</v>
       </c>
       <c r="E33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
         <v>159</v>
       </c>
-      <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>160</v>
       </c>
-      <c r="H33" t="s">
-        <v>161</v>
-      </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34">
         <v>220700134</v>
       </c>
       <c r="E34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" t="s">
         <v>163</v>
       </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>164</v>
       </c>
-      <c r="H34" t="s">
-        <v>165</v>
-      </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35">
         <v>220700135</v>
       </c>
       <c r="E35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
         <v>167</v>
       </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>168</v>
       </c>
-      <c r="H35" t="s">
-        <v>169</v>
-      </c>
       <c r="I35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D36">
         <v>220700136</v>
       </c>
       <c r="E36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
         <v>171</v>
       </c>
-      <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>172</v>
       </c>
-      <c r="H36" t="s">
-        <v>173</v>
-      </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D37">
         <v>220700137</v>
       </c>
       <c r="E37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
         <v>175</v>
       </c>
-      <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>176</v>
       </c>
-      <c r="H37" t="s">
-        <v>177</v>
-      </c>
       <c r="I37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38">
         <v>220700138</v>
       </c>
       <c r="E38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
         <v>179</v>
       </c>
-      <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>180</v>
       </c>
-      <c r="H38" t="s">
-        <v>181</v>
-      </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39">
         <v>220700139</v>
       </c>
       <c r="E39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
         <v>183</v>
       </c>
-      <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>184</v>
       </c>
-      <c r="H39" t="s">
-        <v>185</v>
-      </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40">
         <v>220700140</v>
       </c>
       <c r="E40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
         <v>187</v>
       </c>
-      <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>188</v>
       </c>
-      <c r="H40" t="s">
-        <v>189</v>
-      </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D41">
         <v>220700141</v>
       </c>
       <c r="E41" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
         <v>191</v>
       </c>
-      <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>192</v>
       </c>
-      <c r="H41" t="s">
-        <v>193</v>
-      </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42">
         <v>220700142</v>
       </c>
       <c r="E42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
         <v>195</v>
       </c>
-      <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>196</v>
       </c>
-      <c r="H42" t="s">
-        <v>197</v>
-      </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43">
         <v>220700143</v>
       </c>
       <c r="E43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
         <v>199</v>
       </c>
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>200</v>
       </c>
-      <c r="H43" t="s">
-        <v>201</v>
-      </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D44">
         <v>220700144</v>
       </c>
       <c r="E44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" t="s">
         <v>203</v>
       </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>204</v>
       </c>
-      <c r="H44" t="s">
-        <v>205</v>
-      </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D45">
         <v>220700145</v>
       </c>
       <c r="E45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" t="s">
         <v>207</v>
       </c>
-      <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>208</v>
       </c>
-      <c r="H45" t="s">
-        <v>209</v>
-      </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46">
         <v>220700149</v>
       </c>
       <c r="E46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s">
         <v>211</v>
       </c>
-      <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>212</v>
       </c>
-      <c r="H46" t="s">
-        <v>213</v>
-      </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D47">
         <v>220700150</v>
       </c>
       <c r="E47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
         <v>215</v>
       </c>
-      <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>216</v>
       </c>
-      <c r="H47" t="s">
-        <v>217</v>
-      </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48">
         <v>220700151</v>
       </c>
       <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s">
         <v>219</v>
       </c>
-      <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>220</v>
       </c>
-      <c r="H48" t="s">
-        <v>221</v>
-      </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D49">
         <v>220700153</v>
       </c>
       <c r="E49" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
         <v>223</v>
       </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>224</v>
       </c>
-      <c r="H49" t="s">
-        <v>225</v>
-      </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50">
         <v>220700154</v>
       </c>
       <c r="E50" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s">
         <v>227</v>
       </c>
-      <c r="F50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>228</v>
       </c>
-      <c r="H50" t="s">
-        <v>229</v>
-      </c>
       <c r="I50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D51">
         <v>220700122</v>
       </c>
       <c r="E51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s">
         <v>231</v>
       </c>
-      <c r="F51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>232</v>
       </c>
-      <c r="H51" t="s">
-        <v>233</v>
-      </c>
       <c r="I51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D52">
         <v>220700152</v>
       </c>
       <c r="E52" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s">
         <v>235</v>
       </c>
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>236</v>
       </c>
-      <c r="H52" t="s">
-        <v>237</v>
-      </c>
       <c r="I52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D53">
         <v>220700001</v>
       </c>
       <c r="E53" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
         <v>239</v>
       </c>
-      <c r="F53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>240</v>
       </c>
-      <c r="H53" t="s">
-        <v>241</v>
-      </c>
       <c r="I53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D54">
         <v>220700078</v>
       </c>
       <c r="E54" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="F54" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>240</v>
       </c>
-      <c r="H54" t="s">
-        <v>241</v>
-      </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D55">
         <v>220700002</v>
       </c>
       <c r="E55" t="s">
+        <v>243</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" t="s">
         <v>244</v>
       </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>245</v>
       </c>
-      <c r="H55" t="s">
-        <v>246</v>
-      </c>
       <c r="I55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56">
         <v>220700079</v>
       </c>
       <c r="E56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" t="s">
         <v>244</v>
       </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>245</v>
       </c>
-      <c r="H56" t="s">
-        <v>246</v>
-      </c>
       <c r="I56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D57">
         <v>220700003</v>
       </c>
       <c r="E57" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s">
         <v>249</v>
       </c>
-      <c r="F57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>250</v>
       </c>
-      <c r="H57" t="s">
-        <v>251</v>
-      </c>
       <c r="I57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D58">
         <v>220700080</v>
       </c>
       <c r="E58" t="s">
+        <v>248</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" t="s">
         <v>249</v>
       </c>
-      <c r="F58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>250</v>
       </c>
-      <c r="H58" t="s">
-        <v>251</v>
-      </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D59">
         <v>220700004</v>
       </c>
       <c r="E59" t="s">
+        <v>253</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" t="s">
         <v>254</v>
       </c>
-      <c r="F59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>255</v>
       </c>
-      <c r="H59" t="s">
-        <v>256</v>
-      </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D60">
         <v>220700081</v>
       </c>
       <c r="E60" t="s">
+        <v>253</v>
+      </c>
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" t="s">
         <v>254</v>
       </c>
-      <c r="F60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>255</v>
       </c>
-      <c r="H60" t="s">
-        <v>256</v>
-      </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D61">
         <v>220700005</v>
       </c>
       <c r="E61" t="s">
+        <v>258</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" t="s">
         <v>259</v>
       </c>
-      <c r="F61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>260</v>
       </c>
-      <c r="H61" t="s">
-        <v>261</v>
-      </c>
       <c r="I61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D62">
         <v>220700082</v>
       </c>
       <c r="E62" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" t="s">
         <v>259</v>
       </c>
-      <c r="F62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>260</v>
       </c>
-      <c r="H62" t="s">
-        <v>261</v>
-      </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D63">
         <v>220700006</v>
       </c>
       <c r="E63" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" t="s">
         <v>264</v>
       </c>
-      <c r="F63" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>265</v>
       </c>
-      <c r="H63" t="s">
-        <v>266</v>
-      </c>
       <c r="I63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D64">
         <v>220700083</v>
       </c>
       <c r="E64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s">
         <v>264</v>
       </c>
-      <c r="F64" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>265</v>
       </c>
-      <c r="H64" t="s">
-        <v>266</v>
-      </c>
       <c r="I64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D65">
         <v>220700007</v>
       </c>
       <c r="E65" t="s">
+        <v>268</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" t="s">
         <v>269</v>
       </c>
-      <c r="F65" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>270</v>
       </c>
-      <c r="H65" t="s">
-        <v>271</v>
-      </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D66">
         <v>220700084</v>
       </c>
       <c r="E66" t="s">
+        <v>268</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" t="s">
         <v>269</v>
       </c>
-      <c r="F66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>270</v>
       </c>
-      <c r="H66" t="s">
-        <v>271</v>
-      </c>
       <c r="I66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D67">
         <v>220700008</v>
       </c>
       <c r="E67" t="s">
+        <v>273</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" t="s">
         <v>274</v>
       </c>
-      <c r="F67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>275</v>
       </c>
-      <c r="H67" t="s">
-        <v>276</v>
-      </c>
       <c r="I67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D68">
         <v>220700085</v>
       </c>
       <c r="E68" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" t="s">
         <v>274</v>
       </c>
-      <c r="F68" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>275</v>
       </c>
-      <c r="H68" t="s">
-        <v>276</v>
-      </c>
       <c r="I68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D69">
         <v>220700009</v>
       </c>
       <c r="E69" t="s">
+        <v>278</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" t="s">
         <v>279</v>
       </c>
-      <c r="F69" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>280</v>
       </c>
-      <c r="H69" t="s">
-        <v>281</v>
-      </c>
       <c r="I69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D70">
         <v>220700086</v>
       </c>
       <c r="E70" t="s">
+        <v>278</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" t="s">
         <v>279</v>
       </c>
-      <c r="F70" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>280</v>
       </c>
-      <c r="H70" t="s">
-        <v>281</v>
-      </c>
       <c r="I70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D71">
         <v>220700010</v>
       </c>
       <c r="E71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" t="s">
         <v>284</v>
       </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>285</v>
       </c>
-      <c r="H71" t="s">
-        <v>286</v>
-      </c>
       <c r="I71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D72">
         <v>220700087</v>
       </c>
       <c r="E72" t="s">
+        <v>283</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" t="s">
         <v>284</v>
       </c>
-      <c r="F72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>285</v>
       </c>
-      <c r="H72" t="s">
-        <v>286</v>
-      </c>
       <c r="I72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D73">
         <v>220700011</v>
       </c>
       <c r="E73" t="s">
+        <v>288</v>
+      </c>
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" t="s">
         <v>289</v>
       </c>
-      <c r="F73" t="s">
-        <v>47</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>290</v>
       </c>
-      <c r="H73" t="s">
-        <v>291</v>
-      </c>
       <c r="I73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D74">
         <v>220700088</v>
       </c>
       <c r="E74" t="s">
+        <v>288</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" t="s">
         <v>289</v>
       </c>
-      <c r="F74" t="s">
-        <v>47</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>290</v>
       </c>
-      <c r="H74" t="s">
-        <v>291</v>
-      </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D75">
         <v>220700012</v>
       </c>
       <c r="E75" t="s">
+        <v>293</v>
+      </c>
+      <c r="F75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" t="s">
         <v>294</v>
       </c>
-      <c r="F75" t="s">
-        <v>47</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>295</v>
       </c>
-      <c r="H75" t="s">
-        <v>296</v>
-      </c>
       <c r="I75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D76">
         <v>220700089</v>
       </c>
       <c r="E76" t="s">
+        <v>293</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" t="s">
         <v>294</v>
       </c>
-      <c r="F76" t="s">
-        <v>47</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>295</v>
       </c>
-      <c r="H76" t="s">
-        <v>296</v>
-      </c>
       <c r="I76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D77">
         <v>220700013</v>
       </c>
       <c r="E77" t="s">
+        <v>298</v>
+      </c>
+      <c r="F77" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" t="s">
         <v>299</v>
       </c>
-      <c r="F77" t="s">
-        <v>47</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>300</v>
       </c>
-      <c r="H77" t="s">
-        <v>301</v>
-      </c>
       <c r="I77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D78">
         <v>220700090</v>
       </c>
       <c r="E78" t="s">
+        <v>298</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s">
         <v>299</v>
       </c>
-      <c r="F78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>300</v>
       </c>
-      <c r="H78" t="s">
-        <v>301</v>
-      </c>
       <c r="I78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D79">
         <v>220700014</v>
       </c>
       <c r="E79" t="s">
+        <v>303</v>
+      </c>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" t="s">
         <v>304</v>
       </c>
-      <c r="F79" t="s">
-        <v>47</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>305</v>
       </c>
-      <c r="H79" t="s">
-        <v>306</v>
-      </c>
       <c r="I79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D80">
         <v>220700091</v>
       </c>
       <c r="E80" t="s">
+        <v>303</v>
+      </c>
+      <c r="F80" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80" t="s">
         <v>304</v>
       </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>305</v>
       </c>
-      <c r="H80" t="s">
-        <v>306</v>
-      </c>
       <c r="I80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D81">
         <v>220700015</v>
       </c>
       <c r="E81" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" t="s">
         <v>309</v>
       </c>
-      <c r="F81" t="s">
-        <v>47</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>310</v>
       </c>
-      <c r="H81" t="s">
-        <v>311</v>
-      </c>
       <c r="I81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D82">
         <v>220700092</v>
       </c>
       <c r="E82" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" t="s">
         <v>309</v>
       </c>
-      <c r="F82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>310</v>
       </c>
-      <c r="H82" t="s">
-        <v>311</v>
-      </c>
       <c r="I82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D83">
         <v>220700016</v>
       </c>
       <c r="E83" t="s">
+        <v>313</v>
+      </c>
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" t="s">
         <v>314</v>
       </c>
-      <c r="F83" t="s">
-        <v>47</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>315</v>
       </c>
-      <c r="H83" t="s">
-        <v>316</v>
-      </c>
       <c r="I83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D84">
         <v>220700093</v>
       </c>
       <c r="E84" t="s">
+        <v>313</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84" t="s">
         <v>314</v>
       </c>
-      <c r="F84" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>315</v>
       </c>
-      <c r="H84" t="s">
-        <v>316</v>
-      </c>
       <c r="I84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D85">
         <v>220700017</v>
       </c>
       <c r="E85" t="s">
+        <v>318</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" t="s">
         <v>319</v>
       </c>
-      <c r="F85" t="s">
-        <v>47</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>320</v>
       </c>
-      <c r="H85" t="s">
-        <v>321</v>
-      </c>
       <c r="I85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D86">
         <v>220700094</v>
       </c>
       <c r="E86" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" t="s">
         <v>319</v>
       </c>
-      <c r="F86" t="s">
-        <v>47</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>320</v>
       </c>
-      <c r="H86" t="s">
-        <v>321</v>
-      </c>
       <c r="I86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D87">
         <v>220700018</v>
       </c>
       <c r="E87" t="s">
+        <v>323</v>
+      </c>
+      <c r="F87" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" t="s">
         <v>324</v>
       </c>
-      <c r="F87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>325</v>
       </c>
-      <c r="H87" t="s">
-        <v>326</v>
-      </c>
       <c r="I87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D88">
         <v>220700095</v>
       </c>
       <c r="E88" t="s">
+        <v>323</v>
+      </c>
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88" t="s">
         <v>324</v>
       </c>
-      <c r="F88" t="s">
-        <v>47</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>325</v>
       </c>
-      <c r="H88" t="s">
-        <v>326</v>
-      </c>
       <c r="I88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D89">
         <v>220700019</v>
       </c>
       <c r="E89" t="s">
+        <v>328</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" t="s">
         <v>329</v>
       </c>
-      <c r="F89" t="s">
-        <v>47</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>330</v>
       </c>
-      <c r="H89" t="s">
-        <v>331</v>
-      </c>
       <c r="I89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D90">
         <v>220700096</v>
       </c>
       <c r="E90" t="s">
+        <v>328</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" t="s">
         <v>329</v>
       </c>
-      <c r="F90" t="s">
-        <v>47</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>330</v>
       </c>
-      <c r="H90" t="s">
-        <v>331</v>
-      </c>
       <c r="I90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D91">
         <v>220700020</v>
       </c>
       <c r="E91" t="s">
+        <v>333</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+      <c r="G91" t="s">
         <v>334</v>
       </c>
-      <c r="F91" t="s">
-        <v>47</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>335</v>
       </c>
-      <c r="H91" t="s">
-        <v>336</v>
-      </c>
       <c r="I91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D92">
         <v>220700097</v>
       </c>
       <c r="E92" t="s">
+        <v>333</v>
+      </c>
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" t="s">
         <v>334</v>
       </c>
-      <c r="F92" t="s">
-        <v>47</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>335</v>
       </c>
-      <c r="H92" t="s">
-        <v>336</v>
-      </c>
       <c r="I92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D93">
         <v>220700021</v>
       </c>
       <c r="E93" t="s">
+        <v>338</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" t="s">
         <v>339</v>
       </c>
-      <c r="F93" t="s">
-        <v>47</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>340</v>
       </c>
-      <c r="H93" t="s">
-        <v>341</v>
-      </c>
       <c r="I93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D94">
         <v>220700098</v>
       </c>
       <c r="E94" t="s">
+        <v>338</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" t="s">
         <v>339</v>
       </c>
-      <c r="F94" t="s">
-        <v>47</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>340</v>
       </c>
-      <c r="H94" t="s">
-        <v>341</v>
-      </c>
       <c r="I94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D95">
         <v>220700022</v>
       </c>
       <c r="E95" t="s">
+        <v>343</v>
+      </c>
+      <c r="F95" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95" t="s">
         <v>344</v>
       </c>
-      <c r="F95" t="s">
-        <v>47</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>345</v>
       </c>
-      <c r="H95" t="s">
-        <v>346</v>
-      </c>
       <c r="I95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D96">
         <v>220700099</v>
       </c>
       <c r="E96" t="s">
+        <v>343</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" t="s">
         <v>344</v>
       </c>
-      <c r="F96" t="s">
-        <v>47</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>345</v>
       </c>
-      <c r="H96" t="s">
-        <v>346</v>
-      </c>
       <c r="I96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D97">
         <v>220700023</v>
       </c>
       <c r="E97" t="s">
+        <v>348</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" t="s">
         <v>349</v>
       </c>
-      <c r="F97" t="s">
-        <v>47</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>350</v>
       </c>
-      <c r="H97" t="s">
-        <v>351</v>
-      </c>
       <c r="I97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D98">
         <v>220700024</v>
       </c>
       <c r="E98" t="s">
+        <v>352</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98" t="s">
         <v>353</v>
       </c>
-      <c r="F98" t="s">
-        <v>47</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>354</v>
       </c>
-      <c r="H98" t="s">
-        <v>355</v>
-      </c>
       <c r="I98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D99">
         <v>220700101</v>
       </c>
       <c r="E99" t="s">
+        <v>352</v>
+      </c>
+      <c r="F99" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" t="s">
         <v>353</v>
       </c>
-      <c r="F99" t="s">
-        <v>47</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>354</v>
       </c>
-      <c r="H99" t="s">
-        <v>355</v>
-      </c>
       <c r="I99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D100">
         <v>220700025</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" t="s">
         <v>47</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>48</v>
       </c>
-      <c r="H100" t="s">
-        <v>49</v>
-      </c>
       <c r="I100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D101">
         <v>220700026</v>
       </c>
       <c r="E101" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101" t="s">
         <v>51</v>
       </c>
-      <c r="F101" t="s">
-        <v>47</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>52</v>
       </c>
-      <c r="H101" t="s">
-        <v>53</v>
-      </c>
       <c r="I101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D102">
         <v>220700027</v>
       </c>
       <c r="E102" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" t="s">
+        <v>46</v>
+      </c>
+      <c r="G102" t="s">
         <v>55</v>
       </c>
-      <c r="F102" t="s">
-        <v>47</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>56</v>
       </c>
-      <c r="H102" t="s">
-        <v>57</v>
-      </c>
       <c r="I102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D103">
         <v>220700028</v>
       </c>
       <c r="E103" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103" t="s">
         <v>59</v>
       </c>
-      <c r="F103" t="s">
-        <v>47</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>60</v>
       </c>
-      <c r="H103" t="s">
-        <v>61</v>
-      </c>
       <c r="I103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D104">
         <v>220700029</v>
       </c>
       <c r="E104" t="s">
+        <v>62</v>
+      </c>
+      <c r="F104" t="s">
+        <v>46</v>
+      </c>
+      <c r="G104" t="s">
         <v>63</v>
       </c>
-      <c r="F104" t="s">
-        <v>47</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>64</v>
       </c>
-      <c r="H104" t="s">
-        <v>65</v>
-      </c>
       <c r="I104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D105">
         <v>220700030</v>
       </c>
       <c r="E105" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" t="s">
+        <v>46</v>
+      </c>
+      <c r="G105" t="s">
         <v>67</v>
       </c>
-      <c r="F105" t="s">
-        <v>47</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>68</v>
       </c>
-      <c r="H105" t="s">
-        <v>69</v>
-      </c>
       <c r="I105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D106">
         <v>220700031</v>
       </c>
       <c r="E106" t="s">
+        <v>70</v>
+      </c>
+      <c r="F106" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106" t="s">
         <v>71</v>
       </c>
-      <c r="F106" t="s">
-        <v>47</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>72</v>
       </c>
-      <c r="H106" t="s">
-        <v>73</v>
-      </c>
       <c r="I106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D107">
         <v>220700032</v>
       </c>
       <c r="E107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" t="s">
+        <v>46</v>
+      </c>
+      <c r="G107" t="s">
         <v>75</v>
       </c>
-      <c r="F107" t="s">
-        <v>47</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>76</v>
       </c>
-      <c r="H107" t="s">
-        <v>77</v>
-      </c>
       <c r="I107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D108">
         <v>220700033</v>
       </c>
       <c r="E108" t="s">
+        <v>78</v>
+      </c>
+      <c r="F108" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108" t="s">
         <v>79</v>
       </c>
-      <c r="F108" t="s">
-        <v>47</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>80</v>
       </c>
-      <c r="H108" t="s">
-        <v>81</v>
-      </c>
       <c r="I108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D109">
         <v>220700034</v>
       </c>
       <c r="E109" t="s">
+        <v>82</v>
+      </c>
+      <c r="F109" t="s">
+        <v>46</v>
+      </c>
+      <c r="G109" t="s">
         <v>83</v>
       </c>
-      <c r="F109" t="s">
-        <v>47</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>84</v>
       </c>
-      <c r="H109" t="s">
-        <v>85</v>
-      </c>
       <c r="I109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D110">
         <v>220700035</v>
       </c>
       <c r="E110" t="s">
+        <v>86</v>
+      </c>
+      <c r="F110" t="s">
+        <v>46</v>
+      </c>
+      <c r="G110" t="s">
         <v>87</v>
       </c>
-      <c r="F110" t="s">
-        <v>47</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>88</v>
       </c>
-      <c r="H110" t="s">
-        <v>89</v>
-      </c>
       <c r="I110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D111">
         <v>220700036</v>
       </c>
       <c r="E111" t="s">
+        <v>90</v>
+      </c>
+      <c r="F111" t="s">
+        <v>46</v>
+      </c>
+      <c r="G111" t="s">
         <v>91</v>
       </c>
-      <c r="F111" t="s">
-        <v>47</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>92</v>
       </c>
-      <c r="H111" t="s">
-        <v>93</v>
-      </c>
       <c r="I111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D112">
         <v>220700037</v>
       </c>
       <c r="E112" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112" t="s">
+        <v>46</v>
+      </c>
+      <c r="G112" t="s">
         <v>95</v>
       </c>
-      <c r="F112" t="s">
-        <v>47</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>96</v>
       </c>
-      <c r="H112" t="s">
-        <v>97</v>
-      </c>
       <c r="I112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D113">
         <v>220700038</v>
       </c>
       <c r="E113" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" t="s">
+        <v>46</v>
+      </c>
+      <c r="G113" t="s">
         <v>99</v>
       </c>
-      <c r="F113" t="s">
-        <v>47</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>100</v>
       </c>
-      <c r="H113" t="s">
-        <v>101</v>
-      </c>
       <c r="I113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D114">
         <v>220700039</v>
       </c>
       <c r="E114" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" t="s">
+        <v>46</v>
+      </c>
+      <c r="G114" t="s">
         <v>103</v>
       </c>
-      <c r="F114" t="s">
-        <v>47</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>104</v>
       </c>
-      <c r="H114" t="s">
-        <v>105</v>
-      </c>
       <c r="I114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D115">
         <v>220700040</v>
       </c>
       <c r="E115" t="s">
+        <v>106</v>
+      </c>
+      <c r="F115" t="s">
+        <v>46</v>
+      </c>
+      <c r="G115" t="s">
         <v>107</v>
       </c>
-      <c r="F115" t="s">
-        <v>47</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>108</v>
       </c>
-      <c r="H115" t="s">
-        <v>109</v>
-      </c>
       <c r="I115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D116">
         <v>220700041</v>
       </c>
       <c r="E116" t="s">
+        <v>110</v>
+      </c>
+      <c r="F116" t="s">
+        <v>46</v>
+      </c>
+      <c r="G116" t="s">
         <v>111</v>
       </c>
-      <c r="F116" t="s">
-        <v>47</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>112</v>
       </c>
-      <c r="H116" t="s">
-        <v>113</v>
-      </c>
       <c r="I116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D117">
         <v>220700042</v>
       </c>
       <c r="E117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117" t="s">
+        <v>46</v>
+      </c>
+      <c r="G117" t="s">
         <v>115</v>
       </c>
-      <c r="F117" t="s">
-        <v>47</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>116</v>
       </c>
-      <c r="H117" t="s">
-        <v>117</v>
-      </c>
       <c r="I117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D118">
         <v>220700043</v>
       </c>
       <c r="E118" t="s">
+        <v>118</v>
+      </c>
+      <c r="F118" t="s">
+        <v>46</v>
+      </c>
+      <c r="G118" t="s">
         <v>119</v>
       </c>
-      <c r="F118" t="s">
-        <v>47</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>120</v>
       </c>
-      <c r="H118" t="s">
-        <v>121</v>
-      </c>
       <c r="I118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D119">
         <v>220700044</v>
       </c>
       <c r="E119" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119" t="s">
         <v>123</v>
       </c>
-      <c r="F119" t="s">
-        <v>47</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>124</v>
       </c>
-      <c r="H119" t="s">
-        <v>125</v>
-      </c>
       <c r="I119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D120">
         <v>220700046</v>
       </c>
       <c r="E120" t="s">
+        <v>126</v>
+      </c>
+      <c r="F120" t="s">
+        <v>46</v>
+      </c>
+      <c r="G120" t="s">
         <v>127</v>
       </c>
-      <c r="F120" t="s">
-        <v>47</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>128</v>
       </c>
-      <c r="H120" t="s">
-        <v>129</v>
-      </c>
       <c r="I120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D121">
         <v>220700047</v>
       </c>
       <c r="E121" t="s">
+        <v>130</v>
+      </c>
+      <c r="F121" t="s">
+        <v>46</v>
+      </c>
+      <c r="G121" t="s">
         <v>131</v>
       </c>
-      <c r="F121" t="s">
-        <v>47</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>132</v>
       </c>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
       <c r="I121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D122">
         <v>220700048</v>
       </c>
       <c r="E122" t="s">
+        <v>134</v>
+      </c>
+      <c r="F122" t="s">
+        <v>46</v>
+      </c>
+      <c r="G122" t="s">
         <v>135</v>
       </c>
-      <c r="F122" t="s">
-        <v>47</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>136</v>
       </c>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
       <c r="I122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D123">
         <v>220700049</v>
       </c>
       <c r="E123" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" t="s">
+        <v>46</v>
+      </c>
+      <c r="G123" t="s">
         <v>139</v>
       </c>
-      <c r="F123" t="s">
-        <v>47</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>140</v>
       </c>
-      <c r="H123" t="s">
-        <v>141</v>
-      </c>
       <c r="I123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D124">
         <v>220700050</v>
       </c>
       <c r="E124" t="s">
+        <v>142</v>
+      </c>
+      <c r="F124" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" t="s">
         <v>143</v>
       </c>
-      <c r="F124" t="s">
-        <v>47</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>144</v>
       </c>
-      <c r="H124" t="s">
-        <v>145</v>
-      </c>
       <c r="I124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D125">
         <v>220700051</v>
       </c>
       <c r="E125" t="s">
+        <v>146</v>
+      </c>
+      <c r="F125" t="s">
+        <v>46</v>
+      </c>
+      <c r="G125" t="s">
         <v>147</v>
       </c>
-      <c r="F125" t="s">
-        <v>47</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>148</v>
       </c>
-      <c r="H125" t="s">
-        <v>149</v>
-      </c>
       <c r="I125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C126" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D126">
         <v>220700052</v>
       </c>
       <c r="E126" t="s">
+        <v>150</v>
+      </c>
+      <c r="F126" t="s">
+        <v>46</v>
+      </c>
+      <c r="G126" t="s">
         <v>151</v>
       </c>
-      <c r="F126" t="s">
-        <v>47</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>152</v>
       </c>
-      <c r="H126" t="s">
-        <v>153</v>
-      </c>
       <c r="I126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D127">
         <v>220700053</v>
       </c>
       <c r="E127" t="s">
+        <v>154</v>
+      </c>
+      <c r="F127" t="s">
+        <v>46</v>
+      </c>
+      <c r="G127" t="s">
         <v>155</v>
       </c>
-      <c r="F127" t="s">
-        <v>47</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>156</v>
       </c>
-      <c r="H127" t="s">
-        <v>157</v>
-      </c>
       <c r="I127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D128">
         <v>220700054</v>
       </c>
       <c r="E128" t="s">
+        <v>385</v>
+      </c>
+      <c r="F128" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" t="s">
         <v>386</v>
       </c>
-      <c r="F128" t="s">
-        <v>47</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>387</v>
       </c>
-      <c r="H128" t="s">
-        <v>388</v>
-      </c>
       <c r="I128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D129">
         <v>220700055</v>
       </c>
       <c r="E129" t="s">
+        <v>158</v>
+      </c>
+      <c r="F129" t="s">
+        <v>46</v>
+      </c>
+      <c r="G129" t="s">
         <v>159</v>
       </c>
-      <c r="F129" t="s">
-        <v>47</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>160</v>
       </c>
-      <c r="H129" t="s">
-        <v>161</v>
-      </c>
       <c r="I129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D130">
         <v>220700056</v>
       </c>
       <c r="E130" t="s">
+        <v>390</v>
+      </c>
+      <c r="F130" t="s">
+        <v>46</v>
+      </c>
+      <c r="G130" t="s">
         <v>391</v>
       </c>
-      <c r="F130" t="s">
-        <v>47</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>392</v>
       </c>
-      <c r="H130" t="s">
-        <v>393</v>
-      </c>
       <c r="I130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D131">
         <v>220700057</v>
       </c>
       <c r="E131" t="s">
+        <v>162</v>
+      </c>
+      <c r="F131" t="s">
+        <v>46</v>
+      </c>
+      <c r="G131" t="s">
         <v>163</v>
       </c>
-      <c r="F131" t="s">
-        <v>47</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>164</v>
       </c>
-      <c r="H131" t="s">
-        <v>165</v>
-      </c>
       <c r="I131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D132">
         <v>220700058</v>
       </c>
       <c r="E132" t="s">
+        <v>166</v>
+      </c>
+      <c r="F132" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" t="s">
         <v>167</v>
       </c>
-      <c r="F132" t="s">
-        <v>47</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>168</v>
       </c>
-      <c r="H132" t="s">
-        <v>169</v>
-      </c>
       <c r="I132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D133">
         <v>220700059</v>
       </c>
       <c r="E133" t="s">
+        <v>170</v>
+      </c>
+      <c r="F133" t="s">
+        <v>46</v>
+      </c>
+      <c r="G133" t="s">
         <v>171</v>
       </c>
-      <c r="F133" t="s">
-        <v>47</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>172</v>
       </c>
-      <c r="H133" t="s">
-        <v>173</v>
-      </c>
       <c r="I133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D134">
         <v>220700060</v>
       </c>
       <c r="E134" t="s">
+        <v>174</v>
+      </c>
+      <c r="F134" t="s">
+        <v>46</v>
+      </c>
+      <c r="G134" t="s">
         <v>175</v>
       </c>
-      <c r="F134" t="s">
-        <v>47</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>176</v>
       </c>
-      <c r="H134" t="s">
-        <v>177</v>
-      </c>
       <c r="I134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D135">
         <v>220700061</v>
       </c>
       <c r="E135" t="s">
+        <v>178</v>
+      </c>
+      <c r="F135" t="s">
+        <v>46</v>
+      </c>
+      <c r="G135" t="s">
         <v>179</v>
       </c>
-      <c r="F135" t="s">
-        <v>47</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>180</v>
       </c>
-      <c r="H135" t="s">
-        <v>181</v>
-      </c>
       <c r="I135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D136">
         <v>220700062</v>
       </c>
       <c r="E136" t="s">
+        <v>182</v>
+      </c>
+      <c r="F136" t="s">
+        <v>46</v>
+      </c>
+      <c r="G136" t="s">
         <v>183</v>
       </c>
-      <c r="F136" t="s">
-        <v>47</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>184</v>
       </c>
-      <c r="H136" t="s">
-        <v>185</v>
-      </c>
       <c r="I136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D137">
         <v>220700063</v>
       </c>
       <c r="E137" t="s">
+        <v>186</v>
+      </c>
+      <c r="F137" t="s">
+        <v>46</v>
+      </c>
+      <c r="G137" t="s">
         <v>187</v>
       </c>
-      <c r="F137" t="s">
-        <v>47</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>188</v>
       </c>
-      <c r="H137" t="s">
-        <v>189</v>
-      </c>
       <c r="I137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D138">
         <v>220700064</v>
       </c>
       <c r="E138" t="s">
+        <v>190</v>
+      </c>
+      <c r="F138" t="s">
+        <v>46</v>
+      </c>
+      <c r="G138" t="s">
         <v>191</v>
       </c>
-      <c r="F138" t="s">
-        <v>47</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>192</v>
       </c>
-      <c r="H138" t="s">
-        <v>193</v>
-      </c>
       <c r="I138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D139">
         <v>220700065</v>
       </c>
       <c r="E139" t="s">
+        <v>194</v>
+      </c>
+      <c r="F139" t="s">
+        <v>46</v>
+      </c>
+      <c r="G139" t="s">
         <v>195</v>
       </c>
-      <c r="F139" t="s">
-        <v>47</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>196</v>
       </c>
-      <c r="H139" t="s">
-        <v>197</v>
-      </c>
       <c r="I139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D140">
         <v>220700066</v>
       </c>
       <c r="E140" t="s">
+        <v>198</v>
+      </c>
+      <c r="F140" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" t="s">
         <v>199</v>
       </c>
-      <c r="F140" t="s">
-        <v>47</v>
-      </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>200</v>
       </c>
-      <c r="H140" t="s">
-        <v>201</v>
-      </c>
       <c r="I140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D141">
         <v>220700067</v>
       </c>
       <c r="E141" t="s">
+        <v>202</v>
+      </c>
+      <c r="F141" t="s">
+        <v>46</v>
+      </c>
+      <c r="G141" t="s">
         <v>203</v>
       </c>
-      <c r="F141" t="s">
-        <v>47</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>204</v>
       </c>
-      <c r="H141" t="s">
-        <v>205</v>
-      </c>
       <c r="I141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C142" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D142">
         <v>220700068</v>
       </c>
       <c r="E142" t="s">
+        <v>206</v>
+      </c>
+      <c r="F142" t="s">
+        <v>46</v>
+      </c>
+      <c r="G142" t="s">
         <v>207</v>
       </c>
-      <c r="F142" t="s">
-        <v>47</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>208</v>
       </c>
-      <c r="H142" t="s">
-        <v>209</v>
-      </c>
       <c r="I142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C143" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D143">
         <v>220700069</v>
       </c>
       <c r="E143" t="s">
+        <v>406</v>
+      </c>
+      <c r="F143" t="s">
+        <v>46</v>
+      </c>
+      <c r="G143" t="s">
         <v>407</v>
       </c>
-      <c r="F143" t="s">
-        <v>47</v>
-      </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>408</v>
       </c>
-      <c r="H143" t="s">
-        <v>409</v>
-      </c>
       <c r="I143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D144">
         <v>220700070</v>
       </c>
       <c r="E144" t="s">
+        <v>410</v>
+      </c>
+      <c r="F144" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" t="s">
         <v>411</v>
       </c>
-      <c r="F144" t="s">
-        <v>47</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>412</v>
       </c>
-      <c r="H144" t="s">
-        <v>413</v>
-      </c>
       <c r="I144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C145" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D145">
         <v>220700071</v>
       </c>
       <c r="E145" t="s">
+        <v>414</v>
+      </c>
+      <c r="F145" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" t="s">
         <v>415</v>
       </c>
-      <c r="F145" t="s">
-        <v>47</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>416</v>
       </c>
-      <c r="H145" t="s">
-        <v>417</v>
-      </c>
       <c r="I145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C146" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D146">
         <v>220700072</v>
       </c>
       <c r="E146" t="s">
+        <v>210</v>
+      </c>
+      <c r="F146" t="s">
+        <v>46</v>
+      </c>
+      <c r="G146" t="s">
         <v>211</v>
       </c>
-      <c r="F146" t="s">
-        <v>47</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>212</v>
       </c>
-      <c r="H146" t="s">
-        <v>213</v>
-      </c>
       <c r="I146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D147">
         <v>220700073</v>
       </c>
       <c r="E147" t="s">
+        <v>214</v>
+      </c>
+      <c r="F147" t="s">
+        <v>46</v>
+      </c>
+      <c r="G147" t="s">
         <v>215</v>
       </c>
-      <c r="F147" t="s">
-        <v>47</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>216</v>
       </c>
-      <c r="H147" t="s">
-        <v>217</v>
-      </c>
       <c r="I147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D148">
         <v>220700074</v>
       </c>
       <c r="E148" t="s">
+        <v>218</v>
+      </c>
+      <c r="F148" t="s">
+        <v>46</v>
+      </c>
+      <c r="G148" t="s">
         <v>219</v>
       </c>
-      <c r="F148" t="s">
-        <v>47</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>220</v>
       </c>
-      <c r="H148" t="s">
-        <v>221</v>
-      </c>
       <c r="I148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C149" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D149">
         <v>220700076</v>
       </c>
       <c r="E149" t="s">
+        <v>222</v>
+      </c>
+      <c r="F149" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
         <v>223</v>
       </c>
-      <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>224</v>
       </c>
-      <c r="H149" t="s">
-        <v>225</v>
-      </c>
       <c r="I149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C150" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D150">
         <v>220700077</v>
       </c>
       <c r="E150" t="s">
+        <v>226</v>
+      </c>
+      <c r="F150" t="s">
+        <v>46</v>
+      </c>
+      <c r="G150" t="s">
         <v>227</v>
       </c>
-      <c r="F150" t="s">
-        <v>47</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>228</v>
       </c>
-      <c r="H150" t="s">
-        <v>229</v>
-      </c>
       <c r="I150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D151">
         <v>220700045</v>
       </c>
       <c r="E151" t="s">
+        <v>230</v>
+      </c>
+      <c r="F151" t="s">
+        <v>46</v>
+      </c>
+      <c r="G151" t="s">
         <v>231</v>
       </c>
-      <c r="F151" t="s">
-        <v>47</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>232</v>
       </c>
-      <c r="H151" t="s">
-        <v>233</v>
-      </c>
       <c r="I151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C152" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D152">
         <v>220700075</v>
       </c>
       <c r="E152" t="s">
+        <v>234</v>
+      </c>
+      <c r="F152" t="s">
+        <v>46</v>
+      </c>
+      <c r="G152" t="s">
         <v>235</v>
       </c>
-      <c r="F152" t="s">
-        <v>47</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>236</v>
       </c>
-      <c r="H152" t="s">
-        <v>237</v>
-      </c>
       <c r="I152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6359,8 +6742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6377,78 +6760,78 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" t="s">
         <v>426</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>427</v>
       </c>
-      <c r="F5" t="s">
-        <v>428</v>
-      </c>
       <c r="G5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H5">
         <v>1.18</v>
@@ -6456,22 +6839,22 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" t="s">
         <v>429</v>
       </c>
-      <c r="E6" t="s">
-        <v>430</v>
-      </c>
       <c r="F6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H6">
         <v>0.94</v>
@@ -6479,22 +6862,22 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" t="s">
         <v>431</v>
       </c>
-      <c r="E7" t="s">
-        <v>432</v>
-      </c>
       <c r="F7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H7">
         <v>1.34</v>
@@ -6502,22 +6885,22 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E8" t="s">
         <v>433</v>
       </c>
-      <c r="E8" t="s">
-        <v>434</v>
-      </c>
       <c r="F8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H8">
         <v>1.97</v>
@@ -6525,22 +6908,22 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" t="s">
         <v>435</v>
       </c>
-      <c r="E9" t="s">
-        <v>436</v>
-      </c>
       <c r="F9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H9">
         <v>1.97</v>
@@ -6548,22 +6931,22 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" t="s">
         <v>437</v>
       </c>
-      <c r="E10" t="s">
-        <v>438</v>
-      </c>
       <c r="F10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H10">
         <v>1.89</v>
@@ -6571,22 +6954,22 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" t="s">
         <v>439</v>
       </c>
-      <c r="E11" t="s">
-        <v>440</v>
-      </c>
       <c r="F11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H11">
         <v>5.4</v>
@@ -6594,22 +6977,22 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" t="s">
         <v>441</v>
       </c>
-      <c r="E12" t="s">
-        <v>442</v>
-      </c>
       <c r="F12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H12">
         <v>5.95</v>
@@ -6617,22 +7000,22 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
+        <v>442</v>
+      </c>
+      <c r="E13" t="s">
         <v>443</v>
       </c>
-      <c r="E13" t="s">
-        <v>444</v>
-      </c>
       <c r="F13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H13">
         <v>5.53</v>
@@ -6640,22 +7023,22 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
+        <v>444</v>
+      </c>
+      <c r="E14" t="s">
         <v>445</v>
       </c>
-      <c r="E14" t="s">
-        <v>446</v>
-      </c>
       <c r="F14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H14">
         <v>1.76</v>
@@ -6663,22 +7046,22 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" t="s">
         <v>447</v>
       </c>
-      <c r="E15" t="s">
-        <v>448</v>
-      </c>
       <c r="F15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H15">
         <v>1.83</v>
@@ -6686,22 +7069,22 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
+        <v>448</v>
+      </c>
+      <c r="E16" t="s">
         <v>449</v>
       </c>
-      <c r="E16" t="s">
-        <v>450</v>
-      </c>
       <c r="F16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H16">
         <v>1.73</v>
@@ -6709,22 +7092,22 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
+        <v>450</v>
+      </c>
+      <c r="E17" t="s">
         <v>451</v>
       </c>
-      <c r="E17" t="s">
-        <v>452</v>
-      </c>
       <c r="F17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H17">
         <v>1.39</v>
@@ -6732,22 +7115,22 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
+        <v>452</v>
+      </c>
+      <c r="E18" t="s">
         <v>453</v>
       </c>
-      <c r="E18" t="s">
-        <v>454</v>
-      </c>
       <c r="F18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H18">
         <v>1.46</v>
@@ -6755,22 +7138,22 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
+        <v>454</v>
+      </c>
+      <c r="E19" t="s">
         <v>455</v>
       </c>
-      <c r="E19" t="s">
-        <v>456</v>
-      </c>
       <c r="F19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H19">
         <v>1.33</v>
@@ -6778,22 +7161,22 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" t="s">
         <v>457</v>
       </c>
-      <c r="E20" t="s">
-        <v>458</v>
-      </c>
       <c r="F20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H20">
         <v>1.45</v>
@@ -6801,22 +7184,22 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E21" t="s">
         <v>459</v>
       </c>
-      <c r="E21" t="s">
-        <v>460</v>
-      </c>
       <c r="F21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H21">
         <v>1.52</v>
@@ -6824,22 +7207,22 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
+        <v>460</v>
+      </c>
+      <c r="E22" t="s">
         <v>461</v>
       </c>
-      <c r="E22" t="s">
-        <v>462</v>
-      </c>
       <c r="F22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H22">
         <v>1.37</v>
@@ -6847,22 +7230,22 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
+        <v>462</v>
+      </c>
+      <c r="E23" t="s">
         <v>463</v>
       </c>
-      <c r="E23" t="s">
-        <v>464</v>
-      </c>
       <c r="F23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H23">
         <v>2.2400000000000002</v>
@@ -6870,22 +7253,22 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
+        <v>464</v>
+      </c>
+      <c r="E24" t="s">
         <v>465</v>
       </c>
-      <c r="E24" t="s">
-        <v>466</v>
-      </c>
       <c r="F24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H24">
         <v>2.2799999999999998</v>
@@ -6893,22 +7276,22 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
+        <v>466</v>
+      </c>
+      <c r="E25" t="s">
         <v>467</v>
       </c>
-      <c r="E25" t="s">
-        <v>468</v>
-      </c>
       <c r="F25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H25">
         <v>2.19</v>
@@ -6916,22 +7299,22 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
+        <v>468</v>
+      </c>
+      <c r="E26" t="s">
         <v>469</v>
       </c>
-      <c r="E26" t="s">
-        <v>470</v>
-      </c>
       <c r="F26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H26">
         <v>4.9400000000000004</v>
@@ -6939,22 +7322,22 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
+        <v>470</v>
+      </c>
+      <c r="E27" t="s">
         <v>471</v>
       </c>
-      <c r="E27" t="s">
-        <v>472</v>
-      </c>
       <c r="F27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H27">
         <v>4.9400000000000004</v>
@@ -6962,22 +7345,22 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
+        <v>472</v>
+      </c>
+      <c r="E28" t="s">
         <v>473</v>
       </c>
-      <c r="E28" t="s">
-        <v>474</v>
-      </c>
       <c r="F28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H28">
         <v>5.16</v>
@@ -6985,22 +7368,22 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
+        <v>474</v>
+      </c>
+      <c r="E29" t="s">
         <v>475</v>
       </c>
-      <c r="E29" t="s">
-        <v>476</v>
-      </c>
       <c r="F29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H29">
         <v>2.29</v>
@@ -7008,22 +7391,22 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" t="s">
         <v>477</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>478</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>479</v>
-      </c>
-      <c r="G30" t="s">
-        <v>480</v>
       </c>
       <c r="H30">
         <v>1.97</v>
@@ -7031,22 +7414,22 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
+        <v>480</v>
+      </c>
+      <c r="E31" t="s">
         <v>481</v>
       </c>
-      <c r="E31" t="s">
-        <v>482</v>
-      </c>
       <c r="F31" t="s">
+        <v>478</v>
+      </c>
+      <c r="G31" t="s">
         <v>479</v>
-      </c>
-      <c r="G31" t="s">
-        <v>480</v>
       </c>
       <c r="H31">
         <v>1.98</v>
@@ -7054,22 +7437,22 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" t="s">
         <v>483</v>
       </c>
-      <c r="E32" t="s">
-        <v>484</v>
-      </c>
       <c r="F32" t="s">
+        <v>478</v>
+      </c>
+      <c r="G32" t="s">
         <v>479</v>
-      </c>
-      <c r="G32" t="s">
-        <v>480</v>
       </c>
       <c r="H32">
         <v>1.93</v>
@@ -7077,22 +7460,22 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
+        <v>484</v>
+      </c>
+      <c r="E33" t="s">
         <v>485</v>
       </c>
-      <c r="E33" t="s">
-        <v>486</v>
-      </c>
       <c r="F33" t="s">
+        <v>478</v>
+      </c>
+      <c r="G33" t="s">
         <v>479</v>
-      </c>
-      <c r="G33" t="s">
-        <v>480</v>
       </c>
       <c r="H33">
         <v>2.3199999999999998</v>
@@ -7100,22 +7483,22 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
+        <v>486</v>
+      </c>
+      <c r="E34" t="s">
         <v>487</v>
       </c>
-      <c r="E34" t="s">
-        <v>488</v>
-      </c>
       <c r="F34" t="s">
+        <v>478</v>
+      </c>
+      <c r="G34" t="s">
         <v>479</v>
-      </c>
-      <c r="G34" t="s">
-        <v>480</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -7123,22 +7506,22 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
+        <v>488</v>
+      </c>
+      <c r="E35" t="s">
         <v>489</v>
       </c>
-      <c r="E35" t="s">
-        <v>490</v>
-      </c>
       <c r="F35" t="s">
+        <v>478</v>
+      </c>
+      <c r="G35" t="s">
         <v>479</v>
-      </c>
-      <c r="G35" t="s">
-        <v>480</v>
       </c>
       <c r="H35">
         <v>1.6</v>
@@ -7146,22 +7529,22 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
+        <v>490</v>
+      </c>
+      <c r="E36" t="s">
         <v>491</v>
       </c>
-      <c r="E36" t="s">
-        <v>492</v>
-      </c>
       <c r="F36" t="s">
+        <v>478</v>
+      </c>
+      <c r="G36" t="s">
         <v>479</v>
-      </c>
-      <c r="G36" t="s">
-        <v>480</v>
       </c>
       <c r="H36">
         <v>1.5</v>
@@ -7169,22 +7552,22 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
+        <v>492</v>
+      </c>
+      <c r="E37" t="s">
         <v>493</v>
       </c>
-      <c r="E37" t="s">
-        <v>494</v>
-      </c>
       <c r="F37" t="s">
+        <v>478</v>
+      </c>
+      <c r="G37" t="s">
         <v>479</v>
-      </c>
-      <c r="G37" t="s">
-        <v>480</v>
       </c>
       <c r="H37">
         <v>1.44</v>
@@ -7192,22 +7575,22 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
+        <v>494</v>
+      </c>
+      <c r="E38" t="s">
         <v>495</v>
       </c>
-      <c r="E38" t="s">
-        <v>496</v>
-      </c>
       <c r="F38" t="s">
+        <v>478</v>
+      </c>
+      <c r="G38" t="s">
         <v>479</v>
-      </c>
-      <c r="G38" t="s">
-        <v>480</v>
       </c>
       <c r="H38">
         <v>2.37</v>
@@ -7215,22 +7598,22 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
+        <v>496</v>
+      </c>
+      <c r="E39" t="s">
         <v>497</v>
       </c>
-      <c r="E39" t="s">
-        <v>498</v>
-      </c>
       <c r="F39" t="s">
+        <v>478</v>
+      </c>
+      <c r="G39" t="s">
         <v>479</v>
-      </c>
-      <c r="G39" t="s">
-        <v>480</v>
       </c>
       <c r="H39">
         <v>2.4700000000000002</v>
@@ -7238,22 +7621,22 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
+        <v>498</v>
+      </c>
+      <c r="E40" t="s">
         <v>499</v>
       </c>
-      <c r="E40" t="s">
-        <v>500</v>
-      </c>
       <c r="F40" t="s">
+        <v>478</v>
+      </c>
+      <c r="G40" t="s">
         <v>479</v>
-      </c>
-      <c r="G40" t="s">
-        <v>480</v>
       </c>
       <c r="H40">
         <v>2.4900000000000002</v>
@@ -7261,22 +7644,22 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
+        <v>500</v>
+      </c>
+      <c r="E41" t="s">
         <v>501</v>
       </c>
-      <c r="E41" t="s">
-        <v>502</v>
-      </c>
       <c r="F41" t="s">
+        <v>478</v>
+      </c>
+      <c r="G41" t="s">
         <v>479</v>
-      </c>
-      <c r="G41" t="s">
-        <v>480</v>
       </c>
       <c r="H41">
         <v>2.13</v>
@@ -7284,22 +7667,22 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
+        <v>502</v>
+      </c>
+      <c r="E42" t="s">
         <v>503</v>
       </c>
-      <c r="E42" t="s">
-        <v>504</v>
-      </c>
       <c r="F42" t="s">
+        <v>478</v>
+      </c>
+      <c r="G42" t="s">
         <v>479</v>
-      </c>
-      <c r="G42" t="s">
-        <v>480</v>
       </c>
       <c r="H42">
         <v>1.93</v>
@@ -7307,22 +7690,22 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
+        <v>504</v>
+      </c>
+      <c r="E43" t="s">
         <v>505</v>
       </c>
-      <c r="E43" t="s">
-        <v>506</v>
-      </c>
       <c r="F43" t="s">
+        <v>478</v>
+      </c>
+      <c r="G43" t="s">
         <v>479</v>
-      </c>
-      <c r="G43" t="s">
-        <v>480</v>
       </c>
       <c r="H43">
         <v>2.23</v>
@@ -7330,22 +7713,22 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
+        <v>506</v>
+      </c>
+      <c r="E44" t="s">
         <v>507</v>
       </c>
-      <c r="E44" t="s">
-        <v>508</v>
-      </c>
       <c r="F44" t="s">
+        <v>478</v>
+      </c>
+      <c r="G44" t="s">
         <v>479</v>
-      </c>
-      <c r="G44" t="s">
-        <v>480</v>
       </c>
       <c r="H44">
         <v>1.21</v>
@@ -7353,22 +7736,22 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
+        <v>508</v>
+      </c>
+      <c r="E45" t="s">
         <v>509</v>
       </c>
-      <c r="E45" t="s">
-        <v>510</v>
-      </c>
       <c r="F45" t="s">
+        <v>478</v>
+      </c>
+      <c r="G45" t="s">
         <v>479</v>
-      </c>
-      <c r="G45" t="s">
-        <v>480</v>
       </c>
       <c r="H45">
         <v>1.21</v>
@@ -7376,22 +7759,22 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
+        <v>510</v>
+      </c>
+      <c r="E46" t="s">
         <v>511</v>
       </c>
-      <c r="E46" t="s">
-        <v>512</v>
-      </c>
       <c r="F46" t="s">
+        <v>478</v>
+      </c>
+      <c r="G46" t="s">
         <v>479</v>
-      </c>
-      <c r="G46" t="s">
-        <v>480</v>
       </c>
       <c r="H46">
         <v>1.17</v>
@@ -7399,22 +7782,22 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
+        <v>512</v>
+      </c>
+      <c r="E47" t="s">
         <v>513</v>
       </c>
-      <c r="E47" t="s">
-        <v>514</v>
-      </c>
       <c r="F47" t="s">
+        <v>478</v>
+      </c>
+      <c r="G47" t="s">
         <v>479</v>
-      </c>
-      <c r="G47" t="s">
-        <v>480</v>
       </c>
       <c r="H47">
         <v>2.38</v>
@@ -7422,22 +7805,22 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D48" t="s">
+        <v>514</v>
+      </c>
+      <c r="E48" t="s">
         <v>515</v>
       </c>
-      <c r="E48" t="s">
-        <v>516</v>
-      </c>
       <c r="F48" t="s">
+        <v>478</v>
+      </c>
+      <c r="G48" t="s">
         <v>479</v>
-      </c>
-      <c r="G48" t="s">
-        <v>480</v>
       </c>
       <c r="H48">
         <v>2.66</v>
@@ -7445,22 +7828,22 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
+        <v>516</v>
+      </c>
+      <c r="E49" t="s">
         <v>517</v>
       </c>
-      <c r="E49" t="s">
-        <v>518</v>
-      </c>
       <c r="F49" t="s">
+        <v>478</v>
+      </c>
+      <c r="G49" t="s">
         <v>479</v>
-      </c>
-      <c r="G49" t="s">
-        <v>480</v>
       </c>
       <c r="H49">
         <v>2.38</v>
@@ -7468,22 +7851,22 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
+        <v>518</v>
+      </c>
+      <c r="E50" t="s">
         <v>519</v>
       </c>
-      <c r="E50" t="s">
-        <v>520</v>
-      </c>
       <c r="F50" t="s">
+        <v>478</v>
+      </c>
+      <c r="G50" t="s">
         <v>479</v>
-      </c>
-      <c r="G50" t="s">
-        <v>480</v>
       </c>
       <c r="H50">
         <v>1.79</v>
@@ -7491,22 +7874,22 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
+        <v>520</v>
+      </c>
+      <c r="E51" t="s">
         <v>521</v>
       </c>
-      <c r="E51" t="s">
-        <v>522</v>
-      </c>
       <c r="F51" t="s">
+        <v>478</v>
+      </c>
+      <c r="G51" t="s">
         <v>479</v>
-      </c>
-      <c r="G51" t="s">
-        <v>480</v>
       </c>
       <c r="H51">
         <v>1.78</v>
@@ -7514,22 +7897,22 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
+        <v>522</v>
+      </c>
+      <c r="E52" t="s">
         <v>523</v>
       </c>
-      <c r="E52" t="s">
-        <v>524</v>
-      </c>
       <c r="F52" t="s">
+        <v>478</v>
+      </c>
+      <c r="G52" t="s">
         <v>479</v>
-      </c>
-      <c r="G52" t="s">
-        <v>480</v>
       </c>
       <c r="H52">
         <v>1.69</v>
@@ -7537,22 +7920,22 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
+        <v>524</v>
+      </c>
+      <c r="E53" t="s">
         <v>525</v>
       </c>
-      <c r="E53" t="s">
-        <v>526</v>
-      </c>
       <c r="F53" t="s">
+        <v>478</v>
+      </c>
+      <c r="G53" t="s">
         <v>479</v>
-      </c>
-      <c r="G53" t="s">
-        <v>480</v>
       </c>
       <c r="H53">
         <v>1.18</v>
@@ -7560,22 +7943,22 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D54" t="s">
+        <v>526</v>
+      </c>
+      <c r="E54" t="s">
         <v>527</v>
       </c>
-      <c r="E54" t="s">
-        <v>528</v>
-      </c>
       <c r="F54" t="s">
+        <v>478</v>
+      </c>
+      <c r="G54" t="s">
         <v>479</v>
-      </c>
-      <c r="G54" t="s">
-        <v>480</v>
       </c>
       <c r="H54">
         <v>1.27</v>
@@ -7583,22 +7966,22 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D55" t="s">
+        <v>528</v>
+      </c>
+      <c r="E55" t="s">
         <v>529</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>530</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>531</v>
-      </c>
-      <c r="G55" t="s">
-        <v>532</v>
       </c>
       <c r="H55">
         <v>7.4</v>
@@ -7606,22 +7989,22 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D56" t="s">
+        <v>532</v>
+      </c>
+      <c r="E56" t="s">
         <v>533</v>
       </c>
-      <c r="E56" t="s">
-        <v>534</v>
-      </c>
       <c r="F56" t="s">
+        <v>530</v>
+      </c>
+      <c r="G56" t="s">
         <v>531</v>
-      </c>
-      <c r="G56" t="s">
-        <v>532</v>
       </c>
       <c r="H56">
         <v>7</v>
@@ -7629,22 +8012,22 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D57" t="s">
+        <v>534</v>
+      </c>
+      <c r="E57" t="s">
         <v>535</v>
       </c>
-      <c r="E57" t="s">
-        <v>536</v>
-      </c>
       <c r="F57" t="s">
+        <v>530</v>
+      </c>
+      <c r="G57" t="s">
         <v>531</v>
-      </c>
-      <c r="G57" t="s">
-        <v>532</v>
       </c>
       <c r="H57">
         <v>6.7</v>
@@ -7652,22 +8035,22 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D58" t="s">
+        <v>536</v>
+      </c>
+      <c r="E58" t="s">
         <v>537</v>
       </c>
-      <c r="E58" t="s">
-        <v>538</v>
-      </c>
       <c r="F58" t="s">
+        <v>530</v>
+      </c>
+      <c r="G58" t="s">
         <v>531</v>
-      </c>
-      <c r="G58" t="s">
-        <v>532</v>
       </c>
       <c r="H58">
         <v>5.9</v>
@@ -7675,22 +8058,22 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D59" t="s">
+        <v>538</v>
+      </c>
+      <c r="E59" t="s">
         <v>539</v>
       </c>
-      <c r="E59" t="s">
-        <v>540</v>
-      </c>
       <c r="F59" t="s">
+        <v>530</v>
+      </c>
+      <c r="G59" t="s">
         <v>531</v>
-      </c>
-      <c r="G59" t="s">
-        <v>532</v>
       </c>
       <c r="H59">
         <v>7.4</v>
@@ -7698,22 +8081,22 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D60" t="s">
+        <v>540</v>
+      </c>
+      <c r="E60" t="s">
         <v>541</v>
       </c>
-      <c r="E60" t="s">
-        <v>542</v>
-      </c>
       <c r="F60" t="s">
+        <v>530</v>
+      </c>
+      <c r="G60" t="s">
         <v>531</v>
-      </c>
-      <c r="G60" t="s">
-        <v>532</v>
       </c>
       <c r="H60">
         <v>6.5</v>
@@ -7721,22 +8104,22 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D61" t="s">
+        <v>542</v>
+      </c>
+      <c r="E61" t="s">
         <v>543</v>
       </c>
-      <c r="E61" t="s">
-        <v>544</v>
-      </c>
       <c r="F61" t="s">
+        <v>530</v>
+      </c>
+      <c r="G61" t="s">
         <v>531</v>
-      </c>
-      <c r="G61" t="s">
-        <v>532</v>
       </c>
       <c r="H61">
         <v>6</v>
@@ -7744,22 +8127,22 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D62" t="s">
+        <v>544</v>
+      </c>
+      <c r="E62" t="s">
         <v>545</v>
       </c>
-      <c r="E62" t="s">
-        <v>546</v>
-      </c>
       <c r="F62" t="s">
+        <v>530</v>
+      </c>
+      <c r="G62" t="s">
         <v>531</v>
-      </c>
-      <c r="G62" t="s">
-        <v>532</v>
       </c>
       <c r="H62">
         <v>8.4</v>
@@ -7767,22 +8150,22 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D63" t="s">
+        <v>546</v>
+      </c>
+      <c r="E63" t="s">
         <v>547</v>
       </c>
-      <c r="E63" t="s">
-        <v>548</v>
-      </c>
       <c r="F63" t="s">
+        <v>530</v>
+      </c>
+      <c r="G63" t="s">
         <v>531</v>
-      </c>
-      <c r="G63" t="s">
-        <v>532</v>
       </c>
       <c r="H63">
         <v>8.1</v>
@@ -7790,22 +8173,22 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s">
+        <v>548</v>
+      </c>
+      <c r="E64" t="s">
         <v>549</v>
       </c>
-      <c r="E64" t="s">
-        <v>550</v>
-      </c>
       <c r="F64" t="s">
+        <v>530</v>
+      </c>
+      <c r="G64" t="s">
         <v>531</v>
-      </c>
-      <c r="G64" t="s">
-        <v>532</v>
       </c>
       <c r="H64">
         <v>6.8</v>
@@ -7813,22 +8196,22 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D65" t="s">
+        <v>550</v>
+      </c>
+      <c r="E65" t="s">
         <v>551</v>
       </c>
-      <c r="E65" t="s">
-        <v>552</v>
-      </c>
       <c r="F65" t="s">
+        <v>530</v>
+      </c>
+      <c r="G65" t="s">
         <v>531</v>
-      </c>
-      <c r="G65" t="s">
-        <v>532</v>
       </c>
       <c r="H65">
         <v>6.8</v>
@@ -7836,22 +8219,22 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D66" t="s">
+        <v>552</v>
+      </c>
+      <c r="E66" t="s">
         <v>553</v>
       </c>
-      <c r="E66" t="s">
-        <v>554</v>
-      </c>
       <c r="F66" t="s">
+        <v>530</v>
+      </c>
+      <c r="G66" t="s">
         <v>531</v>
-      </c>
-      <c r="G66" t="s">
-        <v>532</v>
       </c>
       <c r="H66">
         <v>5.3</v>
@@ -7859,22 +8242,22 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
+        <v>554</v>
+      </c>
+      <c r="E67" t="s">
         <v>555</v>
       </c>
-      <c r="E67" t="s">
-        <v>556</v>
-      </c>
       <c r="F67" t="s">
+        <v>530</v>
+      </c>
+      <c r="G67" t="s">
         <v>531</v>
-      </c>
-      <c r="G67" t="s">
-        <v>532</v>
       </c>
       <c r="H67">
         <v>9</v>
@@ -7882,22 +8265,22 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" t="s">
         <v>44</v>
       </c>
-      <c r="C68" t="s">
-        <v>45</v>
-      </c>
       <c r="D68" t="s">
+        <v>556</v>
+      </c>
+      <c r="E68" t="s">
         <v>557</v>
       </c>
-      <c r="E68" t="s">
-        <v>558</v>
-      </c>
       <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
         <v>531</v>
-      </c>
-      <c r="G68" t="s">
-        <v>532</v>
       </c>
       <c r="H68">
         <v>6.7</v>
@@ -7905,22 +8288,22 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
+        <v>558</v>
+      </c>
+      <c r="E69" t="s">
         <v>559</v>
       </c>
-      <c r="E69" t="s">
-        <v>560</v>
-      </c>
       <c r="F69" t="s">
+        <v>530</v>
+      </c>
+      <c r="G69" t="s">
         <v>531</v>
-      </c>
-      <c r="G69" t="s">
-        <v>532</v>
       </c>
       <c r="H69">
         <v>8</v>
@@ -7928,22 +8311,22 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D70" t="s">
+        <v>560</v>
+      </c>
+      <c r="E70" t="s">
         <v>561</v>
       </c>
-      <c r="E70" t="s">
-        <v>562</v>
-      </c>
       <c r="F70" t="s">
+        <v>530</v>
+      </c>
+      <c r="G70" t="s">
         <v>531</v>
-      </c>
-      <c r="G70" t="s">
-        <v>532</v>
       </c>
       <c r="H70">
         <v>8.4</v>
@@ -7951,22 +8334,22 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D71" t="s">
+        <v>562</v>
+      </c>
+      <c r="E71" t="s">
         <v>563</v>
       </c>
-      <c r="E71" t="s">
-        <v>564</v>
-      </c>
       <c r="F71" t="s">
+        <v>530</v>
+      </c>
+      <c r="G71" t="s">
         <v>531</v>
-      </c>
-      <c r="G71" t="s">
-        <v>532</v>
       </c>
       <c r="H71">
         <v>4.9000000000000004</v>
@@ -7974,22 +8357,22 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D72" t="s">
+        <v>564</v>
+      </c>
+      <c r="E72" t="s">
         <v>565</v>
       </c>
-      <c r="E72" t="s">
-        <v>566</v>
-      </c>
       <c r="F72" t="s">
+        <v>530</v>
+      </c>
+      <c r="G72" t="s">
         <v>531</v>
-      </c>
-      <c r="G72" t="s">
-        <v>532</v>
       </c>
       <c r="H72">
         <v>6.6</v>
@@ -7997,22 +8380,22 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" t="s">
+        <v>566</v>
+      </c>
+      <c r="E73" t="s">
         <v>567</v>
       </c>
-      <c r="E73" t="s">
-        <v>568</v>
-      </c>
       <c r="F73" t="s">
+        <v>530</v>
+      </c>
+      <c r="G73" t="s">
         <v>531</v>
-      </c>
-      <c r="G73" t="s">
-        <v>532</v>
       </c>
       <c r="H73">
         <v>9.6999999999999993</v>
@@ -8020,22 +8403,22 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
+        <v>568</v>
+      </c>
+      <c r="E74" t="s">
         <v>569</v>
       </c>
-      <c r="E74" t="s">
-        <v>570</v>
-      </c>
       <c r="F74" t="s">
+        <v>530</v>
+      </c>
+      <c r="G74" t="s">
         <v>531</v>
-      </c>
-      <c r="G74" t="s">
-        <v>532</v>
       </c>
       <c r="H74">
         <v>8.8000000000000007</v>
@@ -8043,22 +8426,22 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
+        <v>570</v>
+      </c>
+      <c r="E75" t="s">
         <v>571</v>
       </c>
-      <c r="E75" t="s">
-        <v>572</v>
-      </c>
       <c r="F75" t="s">
+        <v>530</v>
+      </c>
+      <c r="G75" t="s">
         <v>531</v>
-      </c>
-      <c r="G75" t="s">
-        <v>532</v>
       </c>
       <c r="H75">
         <v>5.4</v>
@@ -8066,22 +8449,22 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s">
+        <v>572</v>
+      </c>
+      <c r="E76" t="s">
         <v>573</v>
       </c>
-      <c r="E76" t="s">
-        <v>574</v>
-      </c>
       <c r="F76" t="s">
+        <v>530</v>
+      </c>
+      <c r="G76" t="s">
         <v>531</v>
-      </c>
-      <c r="G76" t="s">
-        <v>532</v>
       </c>
       <c r="H76">
         <v>3.9</v>
@@ -8089,22 +8472,22 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77" t="s">
+        <v>574</v>
+      </c>
+      <c r="E77" t="s">
         <v>575</v>
       </c>
-      <c r="E77" t="s">
-        <v>576</v>
-      </c>
       <c r="F77" t="s">
+        <v>530</v>
+      </c>
+      <c r="G77" t="s">
         <v>531</v>
-      </c>
-      <c r="G77" t="s">
-        <v>532</v>
       </c>
       <c r="H77">
         <v>6.8</v>
@@ -8112,22 +8495,22 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
+        <v>576</v>
+      </c>
+      <c r="E78" t="s">
         <v>577</v>
       </c>
-      <c r="E78" t="s">
-        <v>578</v>
-      </c>
       <c r="F78" t="s">
+        <v>530</v>
+      </c>
+      <c r="G78" t="s">
         <v>531</v>
-      </c>
-      <c r="G78" t="s">
-        <v>532</v>
       </c>
       <c r="H78">
         <v>9.6</v>
@@ -8135,22 +8518,22 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
+        <v>578</v>
+      </c>
+      <c r="E79" t="s">
         <v>579</v>
       </c>
-      <c r="E79" t="s">
-        <v>580</v>
-      </c>
       <c r="F79" t="s">
+        <v>530</v>
+      </c>
+      <c r="G79" t="s">
         <v>531</v>
-      </c>
-      <c r="G79" t="s">
-        <v>532</v>
       </c>
       <c r="H79">
         <v>5.2</v>
